--- a/biology/Botanique/Arctostaphylos_andersonii/Arctostaphylos_andersonii.xlsx
+++ b/biology/Botanique/Arctostaphylos_andersonii/Arctostaphylos_andersonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arctostaphylos andersonii, la manzanita de Santa Cruz, est une espèce de plantes à fleurs du genre Arctostaphylos poussant seulement dans les monts Santa Cruz, en Californie. On la trouve dans les trouées des forêts de séquoias, généralement à moins de 700 mètres d'altitude[1],[2]. Elle a été nommée en 1873 par Asa Gray en hommage au botaniste Charles Lewis Anderson (en)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctostaphylos andersonii, la manzanita de Santa Cruz, est une espèce de plantes à fleurs du genre Arctostaphylos poussant seulement dans les monts Santa Cruz, en Californie. On la trouve dans les trouées des forêts de séquoias, généralement à moins de 700 mètres d'altitude,. Elle a été nommée en 1873 par Asa Gray en hommage au botaniste Charles Lewis Anderson (en).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctostaphylos andersonii est un arbuste ligneux de 2 à 5 m de haut, qui peut ressembler à un petit arbre. Ses feuilles lisses de 4 à 7 cm cm ont des bords légèrement dentelés et la base profondément lobée. Sa floraison a lieu de février à mai. Son fruit est petit (2–8 mm) et collant.
 			Feuille d’Arctostaphylos andersonii. L : face inférieure ; U : face supérieure.
